--- a/2016112568_ParkByeogHyeon/CH11FinalProject/ID,PW.xlsx
+++ b/2016112568_ParkByeogHyeon/CH11FinalProject/ID,PW.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,10 +462,8 @@
           <t>ranysoda</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>2016112568</t>
-        </is>
+      <c r="B2" t="n">
+        <v>2016112568</v>
       </c>
       <c r="C2" t="n">
         <v>970709</v>
@@ -473,6 +471,44 @@
       <c r="D2" t="inlineStr">
         <is>
           <t>박병현</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>user1</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>980709</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>USER1</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>user2</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>123</v>
+      </c>
+      <c r="C4" t="n">
+        <v>990709</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>USER2</t>
         </is>
       </c>
     </row>

--- a/2016112568_ParkByeogHyeon/CH11FinalProject/ID,PW.xlsx
+++ b/2016112568_ParkByeogHyeon/CH11FinalProject/ID,PW.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,8 +462,10 @@
           <t>ranysoda</t>
         </is>
       </c>
-      <c r="B2" t="n">
-        <v>2016112568</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
       </c>
       <c r="C2" t="n">
         <v>970709</v>
@@ -480,13 +482,11 @@
           <t>user1</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
+      <c r="B3" t="n">
+        <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>980709</v>
+        <v>960709</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -501,14 +501,50 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>12</v>
+      </c>
+      <c r="C4" t="n">
+        <v>980709</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>USER2</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>user3</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
         <v>123</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>990709</v>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>USER2</t>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>USER3</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>user4</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>1234</v>
+      </c>
+      <c r="C6" t="n">
+        <v>709</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>USER4</t>
         </is>
       </c>
     </row>

--- a/2016112568_ParkByeogHyeon/CH11FinalProject/ID,PW.xlsx
+++ b/2016112568_ParkByeogHyeon/CH11FinalProject/ID,PW.xlsx
@@ -462,10 +462,8 @@
           <t>ranysoda</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>123</t>
-        </is>
+      <c r="B2" t="n">
+        <v>123</v>
       </c>
       <c r="C2" t="n">
         <v>970709</v>
